--- a/Code/Results/Cases/Case_8_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04186493912684</v>
+        <v>17.77088965344566</v>
       </c>
       <c r="C2">
-        <v>14.31266133877827</v>
+        <v>14.7586624622006</v>
       </c>
       <c r="D2">
-        <v>4.231572140897851</v>
+        <v>4.290424329162168</v>
       </c>
       <c r="E2">
-        <v>14.65934192618609</v>
+        <v>14.6793829270828</v>
       </c>
       <c r="F2">
-        <v>19.33953176900404</v>
+        <v>18.8438935565908</v>
       </c>
       <c r="G2">
-        <v>2.071641818532021</v>
+        <v>2.019297610197867</v>
       </c>
       <c r="H2">
-        <v>2.240397197145712</v>
+        <v>2.247125112570529</v>
       </c>
       <c r="I2">
-        <v>3.263666015954193</v>
+        <v>3.284045076305723</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.88646692321601</v>
+        <v>12.46328063952418</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.45080723756502</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.082074827296441</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.93717427247765</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.92470534887097</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.18179276588923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.93401646675382</v>
+      </c>
+      <c r="R2">
+        <v>11.93809285123449</v>
+      </c>
+      <c r="S2">
+        <v>14.76943395583278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.87674900794168</v>
+        <v>16.66965235054062</v>
       </c>
       <c r="C3">
-        <v>13.48714182082024</v>
+        <v>13.86799764264335</v>
       </c>
       <c r="D3">
-        <v>4.085400827467957</v>
+        <v>4.115040347014051</v>
       </c>
       <c r="E3">
-        <v>13.96605762456585</v>
+        <v>14.0256280011441</v>
       </c>
       <c r="F3">
-        <v>18.64698612910234</v>
+        <v>18.18319096029634</v>
       </c>
       <c r="G3">
-        <v>2.075752513490354</v>
+        <v>1.488667580310661</v>
       </c>
       <c r="H3">
-        <v>2.034504892462919</v>
+        <v>2.056626380984186</v>
       </c>
       <c r="I3">
-        <v>3.111700562567295</v>
+        <v>3.160471482206761</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.89205347215658</v>
+        <v>12.4829133246657</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.58358607114315</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.959129541757061</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.95883727402751</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.02302314809073</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.84135933360167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.95870289622452</v>
+      </c>
+      <c r="R3">
+        <v>12.00563588953023</v>
+      </c>
+      <c r="S3">
+        <v>14.44341255399019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.11598960619169</v>
+        <v>15.95064170652694</v>
       </c>
       <c r="C4">
-        <v>12.95668979011402</v>
+        <v>13.29558247822996</v>
       </c>
       <c r="D4">
-        <v>3.992541230566608</v>
+        <v>4.003273299424349</v>
       </c>
       <c r="E4">
-        <v>13.52150811370081</v>
+        <v>13.60749667756679</v>
       </c>
       <c r="F4">
-        <v>18.21766571591364</v>
+        <v>17.76991815739191</v>
       </c>
       <c r="G4">
-        <v>2.07836323936941</v>
+        <v>1.151382142942142</v>
       </c>
       <c r="H4">
-        <v>1.903527808330736</v>
+        <v>1.935351400716386</v>
       </c>
       <c r="I4">
-        <v>3.015614970865355</v>
+        <v>3.082437037751438</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.90017013353524</v>
+        <v>12.49717115222189</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.66632063063186</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.905862252357349</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.32719193639764</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.08557653324482</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.63492038602324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.32863072639302</v>
+      </c>
+      <c r="R4">
+        <v>12.0494871508418</v>
+      </c>
+      <c r="S4">
+        <v>14.24249184519758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78920991391706</v>
+        <v>15.64160356782137</v>
       </c>
       <c r="C5">
-        <v>12.74312976260869</v>
+        <v>13.06458489219845</v>
       </c>
       <c r="D5">
-        <v>3.955144641391532</v>
+        <v>3.957964133123071</v>
       </c>
       <c r="E5">
-        <v>13.33542811769914</v>
+        <v>13.43279030566588</v>
       </c>
       <c r="F5">
-        <v>18.03424531808859</v>
+        <v>17.59208871898066</v>
       </c>
       <c r="G5">
-        <v>2.079455671791754</v>
+        <v>1.066233052170675</v>
       </c>
       <c r="H5">
-        <v>1.848830984882667</v>
+        <v>1.884693201510098</v>
       </c>
       <c r="I5">
-        <v>2.976112423720228</v>
+        <v>3.050684548399463</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.8991393966406</v>
+        <v>12.49818219255432</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.69571996829868</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.886473611462152</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.06197378063882</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.11213746056812</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.54550330052663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.0639854496572</v>
+      </c>
+      <c r="R5">
+        <v>12.06855216949256</v>
+      </c>
+      <c r="S5">
+        <v>14.15445886468835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.7277382160493</v>
+        <v>15.58320319885577</v>
       </c>
       <c r="C6">
-        <v>12.71767793556766</v>
+        <v>13.03635713602068</v>
       </c>
       <c r="D6">
-        <v>3.950362131868889</v>
+        <v>3.951889450836175</v>
       </c>
       <c r="E6">
-        <v>13.30391690067696</v>
+        <v>13.40326293913703</v>
       </c>
       <c r="F6">
-        <v>17.9943372234646</v>
+        <v>17.5530188877766</v>
       </c>
       <c r="G6">
-        <v>2.079646181350238</v>
+        <v>1.091021975281455</v>
       </c>
       <c r="H6">
-        <v>1.839482513505888</v>
+        <v>1.876042800539275</v>
       </c>
       <c r="I6">
-        <v>2.970139484899031</v>
+        <v>3.046329765627362</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.89234764337687</v>
+        <v>12.49187596793023</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.69497940999446</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.879429316694219</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.01728390265765</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.11723062886888</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.52333570359975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.01938836276409</v>
+      </c>
+      <c r="R6">
+        <v>12.0725031635602</v>
+      </c>
+      <c r="S6">
+        <v>14.13244772420078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09423989800305</v>
+        <v>15.91099304553052</v>
       </c>
       <c r="C7">
-        <v>12.98156055679368</v>
+        <v>13.28909393196753</v>
       </c>
       <c r="D7">
-        <v>3.996028791382682</v>
+        <v>4.015459089753113</v>
       </c>
       <c r="E7">
-        <v>13.51813092880469</v>
+        <v>13.61097589125301</v>
       </c>
       <c r="F7">
-        <v>18.18979739509056</v>
+        <v>17.68932306384952</v>
       </c>
       <c r="G7">
-        <v>2.07839871685149</v>
+        <v>1.192354105393258</v>
       </c>
       <c r="H7">
-        <v>1.90226987836254</v>
+        <v>1.933161818946467</v>
       </c>
       <c r="I7">
-        <v>3.016491469982602</v>
+        <v>3.082797016536908</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.8818914263727</v>
+        <v>12.4590999789713</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.6343638066738</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.88001014593642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.3231303394162</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.08777762398414</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.61373990232282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.31414886266385</v>
+      </c>
+      <c r="R7">
+        <v>12.05456051894279</v>
+      </c>
+      <c r="S7">
+        <v>14.18005364625071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.62826213517603</v>
+        <v>17.32252325550967</v>
       </c>
       <c r="C8">
-        <v>14.06720479345656</v>
+        <v>14.39371389050892</v>
       </c>
       <c r="D8">
-        <v>4.186961771140122</v>
+        <v>4.264202564806357</v>
       </c>
       <c r="E8">
-        <v>14.42321730625991</v>
+        <v>14.47759724828814</v>
       </c>
       <c r="F8">
-        <v>19.06957662008394</v>
+        <v>18.41826065375246</v>
       </c>
       <c r="G8">
-        <v>2.073067402296273</v>
+        <v>2.176125654368633</v>
       </c>
       <c r="H8">
-        <v>2.169684827264504</v>
+        <v>2.17844200970675</v>
       </c>
       <c r="I8">
-        <v>3.213278811086263</v>
+        <v>3.239808320294038</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.8632980117629</v>
+        <v>12.37988747839067</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.42571279706659</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.966524102822307</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.60568383050742</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.96090035942957</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.03821935164318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.57134006832641</v>
+      </c>
+      <c r="R8">
+        <v>11.974339658356</v>
+      </c>
+      <c r="S8">
+        <v>14.4988488414721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.30555126277011</v>
+        <v>19.8456781157372</v>
       </c>
       <c r="C9">
-        <v>15.96222413911243</v>
+        <v>16.42411510194743</v>
       </c>
       <c r="D9">
-        <v>4.528909424766343</v>
+        <v>4.679035749626248</v>
       </c>
       <c r="E9">
-        <v>16.04637131324444</v>
+        <v>16.01688538685373</v>
       </c>
       <c r="F9">
-        <v>20.79507539200234</v>
+        <v>20.01669018289131</v>
       </c>
       <c r="G9">
-        <v>2.063249426609051</v>
+        <v>3.326172958120864</v>
       </c>
       <c r="H9">
-        <v>2.659543939589023</v>
+        <v>2.630396027797254</v>
       </c>
       <c r="I9">
-        <v>3.576221391417575</v>
+        <v>3.533325229221859</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.8986948739604</v>
+        <v>12.3483345996596</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.11286812010885</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.380253341130932</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.87225895114898</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.72588651838507</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.92218899515489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.82414528953349</v>
+      </c>
+      <c r="R9">
+        <v>11.82218408771474</v>
+      </c>
+      <c r="S9">
+        <v>15.30131252230177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05137797120677</v>
+        <v>21.4112207719507</v>
       </c>
       <c r="C10">
-        <v>17.2293740113594</v>
+        <v>17.62771295382863</v>
       </c>
       <c r="D10">
-        <v>4.784477851275278</v>
+        <v>5.027574785262881</v>
       </c>
       <c r="E10">
-        <v>16.6449141208116</v>
+        <v>16.59309816786018</v>
       </c>
       <c r="F10">
-        <v>21.90599867915288</v>
+        <v>20.77058891530844</v>
       </c>
       <c r="G10">
-        <v>2.056554637718101</v>
+        <v>5.075912035371709</v>
       </c>
       <c r="H10">
-        <v>2.975528894073967</v>
+        <v>2.915067258914642</v>
       </c>
       <c r="I10">
-        <v>3.826929362902293</v>
+        <v>3.730056498735254</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.88263129718009</v>
+        <v>12.16699103641254</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.77758978427083</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.616833660425771</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.09675498672396</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.58155813578</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.47942868492218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.99001300391112</v>
+      </c>
+      <c r="R10">
+        <v>11.76625898806463</v>
+      </c>
+      <c r="S10">
+        <v>15.57873054589876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.79809144708402</v>
+        <v>21.97973648104884</v>
       </c>
       <c r="C11">
-        <v>17.64870229189111</v>
+        <v>17.71620133359797</v>
       </c>
       <c r="D11">
-        <v>5.071370213807625</v>
+        <v>5.431546597000455</v>
       </c>
       <c r="E11">
-        <v>12.90306718515037</v>
+        <v>12.84838557213723</v>
       </c>
       <c r="F11">
-        <v>21.43498118257774</v>
+        <v>19.76153732856088</v>
       </c>
       <c r="G11">
-        <v>2.054607752838039</v>
+        <v>8.442199184157333</v>
       </c>
       <c r="H11">
-        <v>3.558769564463989</v>
+        <v>3.496073224609979</v>
       </c>
       <c r="I11">
-        <v>3.905042508039304</v>
+        <v>3.782465616870423</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.33399380901024</v>
+        <v>11.44840211801849</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.23740817681293</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.134326025102099</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.1838821699979</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.68158681115259</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.93212866764837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.97647633419432</v>
+      </c>
+      <c r="R11">
+        <v>11.97943452482763</v>
+      </c>
+      <c r="S11">
+        <v>14.60502627019471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.09686492867314</v>
+        <v>22.21437400303533</v>
       </c>
       <c r="C12">
-        <v>17.71208307149101</v>
+        <v>17.6005079970009</v>
       </c>
       <c r="D12">
-        <v>5.259965396204039</v>
+        <v>5.673729133662113</v>
       </c>
       <c r="E12">
-        <v>10.22259619794396</v>
+        <v>10.09811406079062</v>
       </c>
       <c r="F12">
-        <v>20.82416337372722</v>
+        <v>18.93007594060498</v>
       </c>
       <c r="G12">
-        <v>2.054206022306859</v>
+        <v>10.18763718223193</v>
       </c>
       <c r="H12">
-        <v>4.602799069039647</v>
+        <v>4.552958532290739</v>
       </c>
       <c r="I12">
-        <v>3.920461133017444</v>
+        <v>3.789485117256572</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.89809802602596</v>
+        <v>10.98537112389735</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.932268314391237</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.75500116489595</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.30010627751632</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.81412884684388</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.36681955509154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.0498069507131</v>
+      </c>
+      <c r="R12">
+        <v>12.17720606955688</v>
+      </c>
+      <c r="S12">
+        <v>13.87430833008673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.05934983003916</v>
+        <v>22.23062547319862</v>
       </c>
       <c r="C13">
-        <v>17.5410414128003</v>
+        <v>17.41247064400088</v>
       </c>
       <c r="D13">
-        <v>5.392477560858068</v>
+        <v>5.789659963836887</v>
       </c>
       <c r="E13">
-        <v>8.698331156186992</v>
+        <v>8.461793891857077</v>
       </c>
       <c r="F13">
-        <v>20.01698553100311</v>
+        <v>18.2434312827933</v>
       </c>
       <c r="G13">
-        <v>2.054995029664391</v>
+        <v>9.759776113451089</v>
       </c>
       <c r="H13">
-        <v>5.800234986956605</v>
+        <v>5.764473280092126</v>
       </c>
       <c r="I13">
-        <v>3.890970663620047</v>
+        <v>3.767505465620451</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.49454426142177</v>
+        <v>10.6963607547632</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.771079190186448</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.450713399068817</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.26919258044092</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.9762468363872</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.71433820817318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.03606212973666</v>
+      </c>
+      <c r="R13">
+        <v>12.34425700815909</v>
+      </c>
+      <c r="S13">
+        <v>13.33454959732308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.87687001036845</v>
+        <v>22.13849082471802</v>
       </c>
       <c r="C14">
-        <v>17.32008981158531</v>
+        <v>17.2498779443278</v>
       </c>
       <c r="D14">
-        <v>5.462281179415114</v>
+        <v>5.815474702205656</v>
       </c>
       <c r="E14">
-        <v>8.65620151818289</v>
+        <v>8.376165541908822</v>
       </c>
       <c r="F14">
-        <v>19.3478200225544</v>
+        <v>17.80877013845465</v>
       </c>
       <c r="G14">
-        <v>2.05607973227599</v>
+        <v>8.499294033195252</v>
       </c>
       <c r="H14">
-        <v>6.691238721149649</v>
+        <v>6.664102242955078</v>
       </c>
       <c r="I14">
-        <v>3.851025102096636</v>
+        <v>3.740053187318593</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.22486617796815</v>
+        <v>10.56116247046278</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.710967480862495</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.265590344248477</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.75657007824356</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.10394098466893</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.20892607368176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.56133963891323</v>
+      </c>
+      <c r="R14">
+        <v>12.44445199796347</v>
+      </c>
+      <c r="S14">
+        <v>13.02753771543825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.75419163523754</v>
+        <v>22.06086928531976</v>
       </c>
       <c r="C15">
-        <v>17.22365934361276</v>
+        <v>17.19795558902931</v>
       </c>
       <c r="D15">
-        <v>5.468513300081772</v>
+        <v>5.797036107701901</v>
       </c>
       <c r="E15">
-        <v>8.784322216411161</v>
+        <v>8.510863118310667</v>
       </c>
       <c r="F15">
-        <v>19.13429884192601</v>
+        <v>17.71658943890127</v>
       </c>
       <c r="G15">
-        <v>2.056622713151478</v>
+        <v>7.789343224466911</v>
       </c>
       <c r="H15">
-        <v>6.895330624726566</v>
+        <v>6.870747399023143</v>
       </c>
       <c r="I15">
-        <v>3.832015684871506</v>
+        <v>3.727887268111221</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.16135097344109</v>
+        <v>10.55297177307045</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.716400925753737</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.228433095625293</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.35279012248007</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.13958916821521</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.06163022808706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.17770238164147</v>
+      </c>
+      <c r="R15">
+        <v>12.46047629062667</v>
+      </c>
+      <c r="S15">
+        <v>12.97906020158198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.04170820635817</v>
+        <v>21.54288509215528</v>
       </c>
       <c r="C16">
-        <v>16.74175147744474</v>
+        <v>16.96614640518325</v>
       </c>
       <c r="D16">
-        <v>5.343258509979329</v>
+        <v>5.5559136860303</v>
       </c>
       <c r="E16">
-        <v>8.676669779088886</v>
+        <v>8.486908329072849</v>
       </c>
       <c r="F16">
-        <v>18.76375895743315</v>
+        <v>17.87611480706296</v>
       </c>
       <c r="G16">
-        <v>2.059311820718913</v>
+        <v>4.686877069303654</v>
       </c>
       <c r="H16">
-        <v>6.626668539509748</v>
+        <v>6.609273018727873</v>
       </c>
       <c r="I16">
-        <v>3.73285891253664</v>
+        <v>3.660182133655661</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.23986673720903</v>
+        <v>10.81542311814503</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.931429098591178</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.329774880279645</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.10391286428463</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.15285407060607</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.91826392528612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.01930204743665</v>
+      </c>
+      <c r="R16">
+        <v>12.36874700458196</v>
+      </c>
+      <c r="S16">
+        <v>13.2505373343629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.58326572415702</v>
+        <v>21.16335122869942</v>
       </c>
       <c r="C17">
-        <v>16.48842729163129</v>
+        <v>16.83677377051815</v>
       </c>
       <c r="D17">
-        <v>5.207159953357631</v>
+        <v>5.36983320369129</v>
       </c>
       <c r="E17">
-        <v>8.430833724898287</v>
+        <v>8.285669500731935</v>
       </c>
       <c r="F17">
-        <v>18.84856056342176</v>
+        <v>18.1727609108041</v>
       </c>
       <c r="G17">
-        <v>2.060813513168105</v>
+        <v>3.673667500155986</v>
       </c>
       <c r="H17">
-        <v>5.897905235020475</v>
+        <v>5.88265339910495</v>
       </c>
       <c r="I17">
-        <v>3.6777299567473</v>
+        <v>3.621308350271861</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.4419494729954</v>
+        <v>11.07171383986163</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.12931856462988</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.481893029230081</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.75286964060019</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.09727958358908</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.08442378941155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.706537533529</v>
+      </c>
+      <c r="R17">
+        <v>12.26405563931609</v>
+      </c>
+      <c r="S17">
+        <v>13.57658646216261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.31488565712267</v>
+        <v>20.91184856707793</v>
       </c>
       <c r="C18">
-        <v>16.39149342344487</v>
+        <v>16.82016280462249</v>
       </c>
       <c r="D18">
-        <v>5.045392846334956</v>
+        <v>5.190230433977679</v>
       </c>
       <c r="E18">
-        <v>9.020673341561922</v>
+        <v>8.904190419740729</v>
       </c>
       <c r="F18">
-        <v>19.34960036313601</v>
+        <v>18.73319787698476</v>
       </c>
       <c r="G18">
-        <v>2.061374317526714</v>
+        <v>3.401694598473082</v>
       </c>
       <c r="H18">
-        <v>4.746838940752631</v>
+        <v>4.729539733450181</v>
       </c>
       <c r="I18">
-        <v>3.654201859070612</v>
+        <v>3.603154844266356</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.78708866219153</v>
+        <v>11.40335380586384</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.366425342499</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.738768016211639</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.25914708161974</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.98104626213333</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.54543872844513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.22775208929304</v>
+      </c>
+      <c r="R18">
+        <v>12.12370328361324</v>
+      </c>
+      <c r="S18">
+        <v>14.07682264371544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.19895428242001</v>
+        <v>20.77480696985072</v>
       </c>
       <c r="C19">
-        <v>16.4737676708658</v>
+        <v>16.96397083984192</v>
       </c>
       <c r="D19">
-        <v>4.886277921322089</v>
+        <v>5.031905406048922</v>
       </c>
       <c r="E19">
-        <v>11.314556769312</v>
+        <v>11.22234611858387</v>
       </c>
       <c r="F19">
-        <v>20.09546859645647</v>
+        <v>19.45413198586789</v>
       </c>
       <c r="G19">
-        <v>2.061075505578945</v>
+        <v>3.404086484362251</v>
       </c>
       <c r="H19">
-        <v>3.540088409098483</v>
+        <v>3.515055710640543</v>
       </c>
       <c r="I19">
-        <v>3.666287370129567</v>
+        <v>3.614119124208895</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.19672081435073</v>
+        <v>11.76254435096936</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.61120377239724</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.050240674145446</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.32592126879992</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.84398792498344</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.16937699882162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.29658212560568</v>
+      </c>
+      <c r="R19">
+        <v>11.97620748535565</v>
+      </c>
+      <c r="S19">
+        <v>14.67445721257963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.56554288977377</v>
+        <v>21.02354131358717</v>
       </c>
       <c r="C20">
-        <v>16.97234631505519</v>
+        <v>17.47822226498941</v>
       </c>
       <c r="D20">
-        <v>4.730686075847197</v>
+        <v>4.921833279297898</v>
       </c>
       <c r="E20">
-        <v>16.46589182222308</v>
+        <v>16.39991114499472</v>
       </c>
       <c r="F20">
-        <v>21.5445244449077</v>
+        <v>20.66380078303281</v>
       </c>
       <c r="G20">
-        <v>2.058347171715863</v>
+        <v>4.008268213316271</v>
       </c>
       <c r="H20">
-        <v>2.890270535260858</v>
+        <v>2.841303343272434</v>
       </c>
       <c r="I20">
-        <v>3.767411329703637</v>
+        <v>3.692219488787947</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.82647890530082</v>
+        <v>12.22861980327195</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.8736154527052</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.564302330184095</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.76896560974566</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.62740969497168</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.27283232899486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.70704758342399</v>
+      </c>
+      <c r="R20">
+        <v>11.77546039527007</v>
+      </c>
+      <c r="S20">
+        <v>15.57878081495928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.84547341502361</v>
+        <v>21.90232774862537</v>
       </c>
       <c r="C21">
-        <v>17.91982014879099</v>
+        <v>17.9288829988444</v>
       </c>
       <c r="D21">
-        <v>4.888675998500472</v>
+        <v>5.297883582055936</v>
       </c>
       <c r="E21">
-        <v>17.6690682516829</v>
+        <v>17.70059387021738</v>
       </c>
       <c r="F21">
-        <v>22.56786674297584</v>
+        <v>20.57672175574782</v>
       </c>
       <c r="G21">
-        <v>2.053115250973134</v>
+        <v>10.02733778130602</v>
       </c>
       <c r="H21">
-        <v>3.164099970489747</v>
+        <v>3.075075610006534</v>
       </c>
       <c r="I21">
-        <v>3.962084027649602</v>
+        <v>3.823456973960785</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.92872408064954</v>
+        <v>11.82418409737044</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.4587959520605</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.513092104701072</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.10350916298587</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.49478195292077</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.85347685166489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.8452995785076</v>
+      </c>
+      <c r="R21">
+        <v>11.79310645898646</v>
+      </c>
+      <c r="S21">
+        <v>15.24984365626394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.660286486338</v>
+        <v>22.45101746803329</v>
       </c>
       <c r="C22">
-        <v>18.48166939503585</v>
+        <v>18.14825370883432</v>
       </c>
       <c r="D22">
-        <v>4.994171269990869</v>
+        <v>5.554872153603334</v>
       </c>
       <c r="E22">
-        <v>18.18115317345001</v>
+        <v>18.28664395426538</v>
       </c>
       <c r="F22">
-        <v>23.19740236046155</v>
+        <v>20.44118232814517</v>
       </c>
       <c r="G22">
-        <v>2.049801187603017</v>
+        <v>14.92850944586257</v>
       </c>
       <c r="H22">
-        <v>3.327562450206929</v>
+        <v>3.21349872315513</v>
       </c>
       <c r="I22">
-        <v>4.082788493445481</v>
+        <v>3.903209218936111</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.99373193784957</v>
+        <v>11.53159573645532</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.18633145197671</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.453662789339154</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.80005398018488</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.41462468648894</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.20898865610967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.40796935329931</v>
+      </c>
+      <c r="R22">
+        <v>11.82805279364897</v>
+      </c>
+      <c r="S22">
+        <v>14.9705313811552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.24386230183413</v>
+        <v>22.21101195741859</v>
       </c>
       <c r="C23">
-        <v>18.15920681851596</v>
+        <v>18.06892726010086</v>
       </c>
       <c r="D23">
-        <v>4.93407850331514</v>
+        <v>5.392978683538517</v>
       </c>
       <c r="E23">
-        <v>17.91016972220259</v>
+        <v>17.95987585334162</v>
       </c>
       <c r="F23">
-        <v>22.88653779258465</v>
+        <v>20.65123874334834</v>
       </c>
       <c r="G23">
-        <v>2.051545021409634</v>
+        <v>11.53604304093815</v>
       </c>
       <c r="H23">
-        <v>3.241118729237153</v>
+        <v>3.14200447737201</v>
       </c>
       <c r="I23">
-        <v>4.01630572193227</v>
+        <v>3.85948347234407</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.97949480412209</v>
+        <v>11.75543373481457</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.37069152264672</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.549409721279056</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.43141468312298</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.45391173644363</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.03961639991077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.13110675566677</v>
+      </c>
+      <c r="R23">
+        <v>11.7912847475655</v>
+      </c>
+      <c r="S23">
+        <v>15.23335953662712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.56663433854539</v>
+        <v>21.02476662424154</v>
       </c>
       <c r="C24">
-        <v>16.93231641807634</v>
+        <v>17.44681101656952</v>
       </c>
       <c r="D24">
-        <v>4.70618185591208</v>
+        <v>4.89572960549865</v>
       </c>
       <c r="E24">
-        <v>16.84658468661794</v>
+        <v>16.78129589922069</v>
       </c>
       <c r="F24">
-        <v>21.65349083839195</v>
+        <v>20.77693401815724</v>
       </c>
       <c r="G24">
-        <v>2.058302569387202</v>
+        <v>3.988263381045073</v>
       </c>
       <c r="H24">
-        <v>2.906211396668139</v>
+        <v>2.857134819351221</v>
       </c>
       <c r="I24">
-        <v>3.763841712701045</v>
+        <v>3.686714238242449</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.90489191772011</v>
+        <v>12.30238533491519</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.9249542972404</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.625827407428322</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.97683847456148</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.61240540381717</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.36706112438858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.9162868327354</v>
+      </c>
+      <c r="R24">
+        <v>11.75672834360459</v>
+      </c>
+      <c r="S24">
+        <v>15.67547431153048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.59318180731117</v>
+        <v>19.19551485298384</v>
       </c>
       <c r="C25">
-        <v>15.51276522440083</v>
+        <v>15.97935580875683</v>
       </c>
       <c r="D25">
-        <v>4.4459854793502</v>
+        <v>4.565858094934628</v>
       </c>
       <c r="E25">
-        <v>15.62280696063677</v>
+        <v>15.6061610887645</v>
       </c>
       <c r="F25">
-        <v>20.29293487528295</v>
+        <v>19.61918222670784</v>
       </c>
       <c r="G25">
-        <v>2.065869057893999</v>
+        <v>2.840848846797687</v>
       </c>
       <c r="H25">
-        <v>2.529868145001569</v>
+        <v>2.512251372062071</v>
       </c>
       <c r="I25">
-        <v>3.482970965607653</v>
+        <v>3.46193500971845</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.8519177645712</v>
+        <v>12.35194801870021</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.19474970356903</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.249053784248445</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.28540110313422</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.7918354857866</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.64804705469746</v>
+        <v>18.25400734239124</v>
+      </c>
+      <c r="R25">
+        <v>11.86124182210951</v>
+      </c>
+      <c r="S25">
+        <v>15.10681029956866</v>
       </c>
     </row>
   </sheetData>
